--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H2">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N2">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q2">
-        <v>1163.297725262697</v>
+        <v>1189.229942782787</v>
       </c>
       <c r="R2">
-        <v>1163.297725262697</v>
+        <v>10703.06948504508</v>
       </c>
       <c r="S2">
-        <v>0.08663489691780688</v>
+        <v>0.08288244238485673</v>
       </c>
       <c r="T2">
-        <v>0.08663489691780688</v>
+        <v>0.08288244238485674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H3">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N3">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q3">
-        <v>241.8564722172299</v>
+        <v>247.2237528683555</v>
       </c>
       <c r="R3">
-        <v>241.8564722172299</v>
+        <v>2225.0137758152</v>
       </c>
       <c r="S3">
-        <v>0.01801190708484576</v>
+        <v>0.01723006436024638</v>
       </c>
       <c r="T3">
-        <v>0.01801190708484576</v>
+        <v>0.01723006436024638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H4">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N4">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q4">
-        <v>256.191644749229</v>
+        <v>260.5312200568356</v>
       </c>
       <c r="R4">
-        <v>256.191644749229</v>
+        <v>2344.78098051152</v>
       </c>
       <c r="S4">
-        <v>0.01907949809584706</v>
+        <v>0.01815751778439803</v>
       </c>
       <c r="T4">
-        <v>0.01907949809584706</v>
+        <v>0.01815751778439803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H5">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I5">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J5">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N5">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q5">
-        <v>259.2946761133997</v>
+        <v>270.1201533273222</v>
       </c>
       <c r="R5">
-        <v>259.2946761133997</v>
+        <v>2431.0813799459</v>
       </c>
       <c r="S5">
-        <v>0.0193105918189152</v>
+        <v>0.01882581092160548</v>
       </c>
       <c r="T5">
-        <v>0.0193105918189152</v>
+        <v>0.01882581092160548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H6">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I6">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J6">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N6">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q6">
-        <v>110.807258048079</v>
+        <v>120.9530062543156</v>
       </c>
       <c r="R6">
-        <v>110.807258048079</v>
+        <v>1088.57705628884</v>
       </c>
       <c r="S6">
-        <v>0.008252208501974261</v>
+        <v>0.008429724321177451</v>
       </c>
       <c r="T6">
-        <v>0.008252208501974261</v>
+        <v>0.008429724321177451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H7">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N7">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q7">
-        <v>2295.735197140958</v>
+        <v>2340.552050319149</v>
       </c>
       <c r="R7">
-        <v>2295.735197140958</v>
+        <v>21064.96845287234</v>
       </c>
       <c r="S7">
-        <v>0.1709715215939016</v>
+        <v>0.1631229281070731</v>
       </c>
       <c r="T7">
-        <v>0.1709715215939016</v>
+        <v>0.1631229281070731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H8">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J8">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N8">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q8">
-        <v>477.2969153705292</v>
+        <v>486.5670135328177</v>
       </c>
       <c r="R8">
-        <v>477.2969153705292</v>
+        <v>4379.10312179536</v>
       </c>
       <c r="S8">
-        <v>0.03554598978776061</v>
+        <v>0.03391090403521017</v>
       </c>
       <c r="T8">
-        <v>0.03554598978776061</v>
+        <v>0.03391090403521018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H9">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J9">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N9">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q9">
-        <v>505.5869733875917</v>
+        <v>512.7577597392817</v>
       </c>
       <c r="R9">
-        <v>505.5869733875917</v>
+        <v>4614.819837653536</v>
       </c>
       <c r="S9">
-        <v>0.03765285048806286</v>
+        <v>0.03573624742371763</v>
       </c>
       <c r="T9">
-        <v>0.03765285048806286</v>
+        <v>0.03573624742371764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H10">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I10">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J10">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N10">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q10">
-        <v>511.7107181228015</v>
+        <v>531.629969914291</v>
       </c>
       <c r="R10">
-        <v>511.7107181228015</v>
+        <v>4784.669729228619</v>
       </c>
       <c r="S10">
-        <v>0.03810890742203999</v>
+        <v>0.03705153121891451</v>
       </c>
       <c r="T10">
-        <v>0.03810890742203999</v>
+        <v>0.03705153121891452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H11">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I11">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J11">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N11">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q11">
-        <v>218.6749934048141</v>
+        <v>238.0505204219457</v>
       </c>
       <c r="R11">
-        <v>218.6749934048141</v>
+        <v>2142.454683797512</v>
       </c>
       <c r="S11">
-        <v>0.01628550035017906</v>
+        <v>0.01659074316392386</v>
       </c>
       <c r="T11">
-        <v>0.01628550035017906</v>
+        <v>0.01659074316392386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H12">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I12">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J12">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N12">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O12">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P12">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q12">
-        <v>1426.335151610971</v>
+        <v>1451.16950803396</v>
       </c>
       <c r="R12">
-        <v>1426.335151610971</v>
+        <v>13060.52557230564</v>
       </c>
       <c r="S12">
-        <v>0.1062242245871805</v>
+        <v>0.1011381136761825</v>
       </c>
       <c r="T12">
-        <v>0.1062242245871805</v>
+        <v>0.1011381136761826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H13">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I13">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J13">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N13">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O13">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P13">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q13">
-        <v>296.5435077165273</v>
+        <v>301.6772105357333</v>
       </c>
       <c r="R13">
-        <v>296.5435077165273</v>
+        <v>2715.0948948216</v>
       </c>
       <c r="S13">
-        <v>0.02208464408100225</v>
+        <v>0.02102515512058474</v>
       </c>
       <c r="T13">
-        <v>0.02208464408100225</v>
+        <v>0.02102515512058474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H14">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I14">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J14">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N14">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O14">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P14">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q14">
-        <v>314.1200575908778</v>
+        <v>317.9157779635733</v>
       </c>
       <c r="R14">
-        <v>314.1200575908778</v>
+        <v>2861.24200167216</v>
       </c>
       <c r="S14">
-        <v>0.02339363192948376</v>
+        <v>0.02215688926284926</v>
       </c>
       <c r="T14">
-        <v>0.02339363192948376</v>
+        <v>0.02215688926284927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H15">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I15">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J15">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N15">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O15">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P15">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q15">
-        <v>317.9247265205523</v>
+        <v>329.6167678866333</v>
       </c>
       <c r="R15">
-        <v>317.9247265205523</v>
+        <v>2966.5509109797</v>
       </c>
       <c r="S15">
-        <v>0.0236769790841894</v>
+        <v>0.02297238052173438</v>
       </c>
       <c r="T15">
-        <v>0.0236769790841894</v>
+        <v>0.02297238052173438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H16">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I16">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J16">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N16">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O16">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P16">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q16">
-        <v>135.8622851015307</v>
+        <v>147.5940928384133</v>
       </c>
       <c r="R16">
-        <v>135.8622851015307</v>
+        <v>1328.34683554572</v>
       </c>
       <c r="S16">
-        <v>0.01011814500207227</v>
+        <v>0.01028645382691927</v>
       </c>
       <c r="T16">
-        <v>0.01011814500207227</v>
+        <v>0.01028645382691928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H17">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I17">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J17">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N17">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O17">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P17">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q17">
-        <v>2464.61386818913</v>
+        <v>2838.918914709402</v>
       </c>
       <c r="R17">
-        <v>2464.61386818913</v>
+        <v>25550.27023238461</v>
       </c>
       <c r="S17">
-        <v>0.1835485136571937</v>
+        <v>0.1978562134359738</v>
       </c>
       <c r="T17">
-        <v>0.1835485136571937</v>
+        <v>0.1978562134359738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H18">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I18">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J18">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N18">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O18">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P18">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q18">
-        <v>512.4077891610041</v>
+        <v>590.1702967056978</v>
       </c>
       <c r="R18">
-        <v>512.4077891610041</v>
+        <v>5311.53267035128</v>
       </c>
       <c r="S18">
-        <v>0.03816082076823469</v>
+        <v>0.04113145309771106</v>
       </c>
       <c r="T18">
-        <v>0.03816082076823469</v>
+        <v>0.04113145309771106</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H19">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I19">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J19">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N19">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O19">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P19">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q19">
-        <v>542.7789179425638</v>
+        <v>621.9377614735698</v>
       </c>
       <c r="R19">
-        <v>542.7789179425638</v>
+        <v>5597.439853262128</v>
       </c>
       <c r="S19">
-        <v>0.04042266617042842</v>
+        <v>0.04334546148550442</v>
       </c>
       <c r="T19">
-        <v>0.04042266617042842</v>
+        <v>0.04334546148550443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H20">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I20">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J20">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N20">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O20">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P20">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q20">
-        <v>549.3531370504313</v>
+        <v>644.8283758570011</v>
       </c>
       <c r="R20">
-        <v>549.3531370504313</v>
+        <v>5803.455382713009</v>
       </c>
       <c r="S20">
-        <v>0.04091227152454924</v>
+        <v>0.04494080479089516</v>
       </c>
       <c r="T20">
-        <v>0.04091227152454924</v>
+        <v>0.04494080479089516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H21">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I21">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J21">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N21">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O21">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P21">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q21">
-        <v>234.7611440739609</v>
+        <v>288.7379176165418</v>
       </c>
       <c r="R21">
-        <v>234.7611440739609</v>
+        <v>2598.641258548876</v>
       </c>
       <c r="S21">
-        <v>0.01748349289736739</v>
+        <v>0.02012336131158749</v>
       </c>
       <c r="T21">
-        <v>0.01748349289736739</v>
+        <v>0.02012336131158749</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H22">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I22">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J22">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N22">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O22">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P22">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q22">
-        <v>339.2548016161326</v>
+        <v>352.0956954252835</v>
       </c>
       <c r="R22">
-        <v>339.2548016161326</v>
+        <v>3168.861258827551</v>
       </c>
       <c r="S22">
-        <v>0.02526550523448112</v>
+        <v>0.02453903163735957</v>
       </c>
       <c r="T22">
-        <v>0.02526550523448112</v>
+        <v>0.02453903163735957</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H23">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I23">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J23">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N23">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O23">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P23">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q23">
-        <v>70.53307826515793</v>
+        <v>73.19561681077778</v>
       </c>
       <c r="R23">
-        <v>70.53307826515793</v>
+        <v>658.760551297</v>
       </c>
       <c r="S23">
-        <v>0.005252847858374048</v>
+        <v>0.005101310751516633</v>
       </c>
       <c r="T23">
-        <v>0.005252847858374048</v>
+        <v>0.005101310751516634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H24">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I24">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J24">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N24">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O24">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P24">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q24">
-        <v>74.71367280072975</v>
+        <v>77.1355629435778</v>
       </c>
       <c r="R24">
-        <v>74.71367280072975</v>
+        <v>694.2200664922001</v>
       </c>
       <c r="S24">
-        <v>0.005564191522836748</v>
+        <v>0.005375902188044969</v>
       </c>
       <c r="T24">
-        <v>0.005564191522836748</v>
+        <v>0.005375902188044969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H25">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I25">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J25">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N25">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O25">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P25">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q25">
-        <v>75.61861593523356</v>
+        <v>79.97456153148612</v>
       </c>
       <c r="R25">
-        <v>75.61861593523356</v>
+        <v>719.771053783375</v>
       </c>
       <c r="S25">
-        <v>0.005631585839417665</v>
+        <v>0.005573763954241667</v>
       </c>
       <c r="T25">
-        <v>0.005631585839417665</v>
+        <v>0.005573763954241668</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H26">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I26">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J26">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N26">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O26">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P26">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q26">
-        <v>32.31493841203859</v>
+        <v>35.81059584762778</v>
       </c>
       <c r="R26">
-        <v>32.31493841203859</v>
+        <v>322.29536262865</v>
       </c>
       <c r="S26">
-        <v>0.002406607781855699</v>
+        <v>0.002495791217771682</v>
       </c>
       <c r="T26">
-        <v>0.002406607781855699</v>
+        <v>0.002495791217771682</v>
       </c>
     </row>
   </sheetData>
